--- a/results/TWOSTEP_100.xlsx
+++ b/results/TWOSTEP_100.xlsx
@@ -356,7 +356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -375,1102 +375,1113 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>1218.059791610905</v>
+        <v>1206.438913731416</v>
       </c>
       <c r="B2">
-        <v>34.90071333957094</v>
+        <v>34.73382952873776</v>
       </c>
       <c r="C2">
-        <v>0.7829015652977368</v>
+        <v>0.7754323067731159</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>1213.925234615858</v>
+        <v>1207.234496626586</v>
       </c>
       <c r="B3">
-        <v>34.84142985894606</v>
+        <v>34.74528020647676</v>
       </c>
       <c r="C3">
-        <v>0.780244100396976</v>
+        <v>0.7759436635211526</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>1215.783324640754</v>
+        <v>1209.345237216855</v>
       </c>
       <c r="B4">
-        <v>34.86808461388085</v>
+        <v>34.77564143501677</v>
       </c>
       <c r="C4">
-        <v>0.7814383780498299</v>
+        <v>0.7773003310045037</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1224.192868625151</v>
+        <v>1210.899351148823</v>
       </c>
       <c r="B5">
-        <v>34.98846765185854</v>
+        <v>34.79797912449548</v>
       </c>
       <c r="C5">
-        <v>0.7868435684962827</v>
+        <v>0.7782992296122566</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>1215.490653677956</v>
+        <v>1210.327886195653</v>
       </c>
       <c r="B6">
-        <v>34.86388752961948</v>
+        <v>34.78976697529969</v>
       </c>
       <c r="C6">
-        <v>0.7812502653180213</v>
+        <v>0.777931923500161</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>1219.140962280103</v>
+        <v>1211.512222241705</v>
       </c>
       <c r="B7">
-        <v>34.91619913851024</v>
+        <v>34.80678414105079</v>
       </c>
       <c r="C7">
-        <v>0.783596482095008</v>
+        <v>0.7786931493042486</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>1214.071389032696</v>
+        <v>1209.796420855325</v>
       </c>
       <c r="B8">
-        <v>34.84352721859106</v>
+        <v>34.78212789429832</v>
       </c>
       <c r="C8">
-        <v>0.7803380403845779</v>
+        <v>0.7775903269301809</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>1218.637703889219</v>
+        <v>1215.286334016929</v>
       </c>
       <c r="B9">
-        <v>34.90899173406788</v>
+        <v>34.86095715864567</v>
       </c>
       <c r="C9">
-        <v>0.7832730153943634</v>
+        <v>0.7811189399237149</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>1210.609000860681</v>
+        <v>1206.640324836475</v>
       </c>
       <c r="B10">
-        <v>34.79380693256605</v>
+        <v>34.73672875842622</v>
       </c>
       <c r="C10">
-        <v>0.7781126084819636</v>
+        <v>0.7755617627082931</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>1213.817051210151</v>
+        <v>1209.556388192852</v>
       </c>
       <c r="B11">
-        <v>34.8398773133625</v>
+        <v>34.77867720590954</v>
       </c>
       <c r="C11">
-        <v>0.780174566078338</v>
+        <v>0.7774360471908217</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>1210.707680963122</v>
+        <v>1209.372740617234</v>
       </c>
       <c r="B12">
-        <v>34.79522497359547</v>
+        <v>34.77603687335913</v>
       </c>
       <c r="C12">
-        <v>0.7781760346020919</v>
+        <v>0.7773180086713619</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>1222.809088674902</v>
+        <v>1208.56666707941</v>
       </c>
       <c r="B13">
-        <v>34.9686872598172</v>
+        <v>34.76444544472714</v>
       </c>
       <c r="C13">
-        <v>0.7859541511650935</v>
+        <v>0.7767999091175872</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>1215.727494503534</v>
+        <v>1208.14926276559</v>
       </c>
       <c r="B14">
-        <v>34.86728401386512</v>
+        <v>34.75844160438712</v>
       </c>
       <c r="C14">
-        <v>0.781402493520906</v>
+        <v>0.7765316246762987</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>1219.490069491237</v>
+        <v>1211.120282245957</v>
       </c>
       <c r="B15">
-        <v>34.92119799622053</v>
+        <v>34.80115346142936</v>
       </c>
       <c r="C15">
-        <v>0.7838208689304735</v>
+        <v>0.7784412319203146</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>1216.763114533149</v>
+        <v>1207.447626982336</v>
       </c>
       <c r="B16">
-        <v>34.88213173722541</v>
+        <v>34.74834711151505</v>
       </c>
       <c r="C16">
-        <v>0.7820681328826391</v>
+        <v>0.7760806519434644</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>1211.015569717755</v>
+        <v>1208.274871088329</v>
       </c>
       <c r="B17">
-        <v>34.79964898842739</v>
+        <v>34.76024843248864</v>
       </c>
       <c r="C17">
-        <v>0.778373928490061</v>
+        <v>0.7766123587692948</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>1212.388620790125</v>
+        <v>1213.710787916978</v>
       </c>
       <c r="B18">
-        <v>34.81937134398214</v>
+        <v>34.83835225605508</v>
       </c>
       <c r="C18">
-        <v>0.7792564498910598</v>
+        <v>0.7801062659019985</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>1217.64369873651</v>
+        <v>1205.53499088386</v>
       </c>
       <c r="B19">
-        <v>34.89475173627849</v>
+        <v>34.72081495132078</v>
       </c>
       <c r="C19">
-        <v>0.782634123777284</v>
+        <v>0.7748513150868939</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>1213.179685904463</v>
+        <v>1206.406449097738</v>
       </c>
       <c r="B20">
-        <v>34.83072904641049</v>
+        <v>34.73336219109428</v>
       </c>
       <c r="C20">
-        <v>0.7797649028590696</v>
+        <v>0.7754114402994909</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>1217.103412892751</v>
+        <v>1214.733344721659</v>
       </c>
       <c r="B21">
-        <v>34.88700922826076</v>
+        <v>34.85302490059735</v>
       </c>
       <c r="C21">
-        <v>0.78228685787482</v>
+        <v>0.7807635089441752</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>1208.212956832213</v>
+        <v>1223.811131129179</v>
       </c>
       <c r="B22">
-        <v>34.75935783112532</v>
+        <v>34.98301203626095</v>
       </c>
       <c r="C22">
-        <v>0.7765725637047437</v>
+        <v>0.7865982087157593</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>1209.064211809672</v>
+        <v>1215.892624818895</v>
       </c>
       <c r="B23">
-        <v>34.77160065066997</v>
+        <v>34.86965191708823</v>
       </c>
       <c r="C23">
-        <v>0.7771197033927183</v>
+        <v>0.7815086301681061</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>1211.496882715471</v>
+        <v>1213.532312174838</v>
       </c>
       <c r="B24">
-        <v>34.8065637878184</v>
+        <v>34.83579067819242</v>
       </c>
       <c r="C24">
-        <v>0.7786832899039161</v>
+        <v>0.7799915515514769</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>1214.578312143657</v>
+        <v>1207.361181594444</v>
       </c>
       <c r="B25">
-        <v>34.85080073891641</v>
+        <v>34.74710321155482</v>
       </c>
       <c r="C25">
-        <v>0.7806638625648802</v>
+        <v>0.7760250896221721</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>1213.348679072791</v>
+        <v>1219.081172479173</v>
       </c>
       <c r="B26">
-        <v>34.83315488256542</v>
+        <v>34.9153429380147</v>
       </c>
       <c r="C26">
-        <v>0.7798735223348344</v>
+        <v>0.7835580525129289</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>1213.846024180101</v>
+        <v>1210.886391271529</v>
       </c>
       <c r="B27">
-        <v>34.84029311271793</v>
+        <v>34.79779290804991</v>
       </c>
       <c r="C27">
-        <v>0.7801931883033486</v>
+        <v>0.7782908997188556</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>1216.506486841295</v>
+        <v>1213.843988983823</v>
       </c>
       <c r="B28">
-        <v>34.87845304541609</v>
+        <v>34.84026390519772</v>
       </c>
       <c r="C28">
-        <v>0.7819031867748713</v>
+        <v>0.780191880191587</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>1208.834496285377</v>
+        <v>1211.737770986167</v>
       </c>
       <c r="B29">
-        <v>34.76829728769266</v>
+        <v>34.81002400151668</v>
       </c>
       <c r="C29">
-        <v>0.7769720549400104</v>
+        <v>0.7788381195809985</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>1217.771588615761</v>
+        <v>1210.43076535891</v>
       </c>
       <c r="B30">
-        <v>34.89658419696347</v>
+        <v>34.79124552755923</v>
       </c>
       <c r="C30">
-        <v>0.7827163243288054</v>
+        <v>0.7779980485446877</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>1215.82625378486</v>
+        <v>1203.101246452838</v>
       </c>
       <c r="B31">
-        <v>34.86870020211336</v>
+        <v>34.68574990472078</v>
       </c>
       <c r="C31">
-        <v>0.7814659705328477</v>
+        <v>0.7732870385729554</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>1211.995847021466</v>
+        <v>1210.814014007497</v>
       </c>
       <c r="B32">
-        <v>34.81373072541158</v>
+        <v>34.79675292333319</v>
       </c>
       <c r="C32">
-        <v>0.7790039966039439</v>
+        <v>0.7782443796106414</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>1219.214290091111</v>
+        <v>1220.686309366306</v>
       </c>
       <c r="B33">
-        <v>34.91724917703443</v>
+        <v>34.93832150184531</v>
       </c>
       <c r="C33">
-        <v>0.783643613162308</v>
+        <v>0.7845897458584464</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>1215.308796787938</v>
+        <v>1216.765586136759</v>
       </c>
       <c r="B34">
-        <v>34.86127933378145</v>
+        <v>34.88216716513983</v>
       </c>
       <c r="C34">
-        <v>0.781133377752378</v>
+        <v>0.7820697214929357</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>1210.339893683406</v>
+        <v>1213.840750941248</v>
       </c>
       <c r="B35">
-        <v>34.78993954699269</v>
+        <v>34.84021743533252</v>
       </c>
       <c r="C35">
-        <v>0.7779396412501642</v>
+        <v>0.7801897989566404</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>1207.045103168728</v>
+        <v>1204.946764258397</v>
       </c>
       <c r="B36">
-        <v>34.74255464367478</v>
+        <v>34.71234311103755</v>
       </c>
       <c r="C36">
-        <v>0.7758219318659086</v>
+        <v>0.7744732354975281</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>1217.398947079171</v>
+        <v>1210.764344344291</v>
       </c>
       <c r="B37">
-        <v>34.89124456191225</v>
+        <v>34.79603920483322</v>
       </c>
       <c r="C37">
-        <v>0.7824768109286391</v>
+        <v>0.7782124546942066</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>1211.267113280162</v>
+        <v>1210.24115097125</v>
       </c>
       <c r="B38">
-        <v>34.80326296886777</v>
+        <v>34.78852039065833</v>
       </c>
       <c r="C38">
-        <v>0.7785356068001967</v>
+        <v>0.7778761748879597</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>1216.513232045878</v>
+        <v>1223.446029996961</v>
       </c>
       <c r="B39">
-        <v>34.87854974115005</v>
+        <v>34.97779338375937</v>
       </c>
       <c r="C39">
-        <v>0.7819075222198606</v>
+        <v>0.786363541871097</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>1220.625071225806</v>
+        <v>1205.404695041151</v>
       </c>
       <c r="B40">
-        <v>34.93744511588971</v>
+        <v>34.718938564437</v>
       </c>
       <c r="C40">
-        <v>0.7845503853636812</v>
+        <v>0.774767568114931</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>1216.405537254954</v>
+        <v>1205.9108885529</v>
       </c>
       <c r="B41">
-        <v>34.87700585278149</v>
+        <v>34.72622767524425</v>
       </c>
       <c r="C41">
-        <v>0.7818383019558244</v>
+        <v>0.775092921349162</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>1214.280521461212</v>
+        <v>1205.325210248731</v>
       </c>
       <c r="B42">
-        <v>34.84652811201156</v>
+        <v>34.71779385630272</v>
       </c>
       <c r="C42">
-        <v>0.7804724591600468</v>
+        <v>0.7747164796800072</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>1216.512205013874</v>
+        <v>1211.301477175038</v>
       </c>
       <c r="B43">
-        <v>34.87853501817234</v>
+        <v>34.80375665319821</v>
       </c>
       <c r="C43">
-        <v>0.7819068621004106</v>
+        <v>0.7785576940140245</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>1214.275633004667</v>
+        <v>1212.58118295773</v>
       </c>
       <c r="B44">
-        <v>34.84645796927812</v>
+        <v>34.82213639278512</v>
       </c>
       <c r="C44">
-        <v>0.7804693171301469</v>
+        <v>0.7793802182179264</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>1211.237022527915</v>
+        <v>1204.461718465387</v>
       </c>
       <c r="B45">
-        <v>34.8028306683223</v>
+        <v>34.70535576053626</v>
       </c>
       <c r="C45">
-        <v>0.7785162661264486</v>
+        <v>0.774161474848988</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>1216.503481537199</v>
+        <v>1208.337272651679</v>
       </c>
       <c r="B46">
-        <v>34.8784099628581</v>
+        <v>34.76114602040155</v>
       </c>
       <c r="C46">
-        <v>0.781901255131371</v>
+        <v>0.7766524670480116</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>1212.032931455442</v>
+        <v>1203.917398604853</v>
       </c>
       <c r="B47">
-        <v>34.81426333351665</v>
+        <v>34.69751285906316</v>
       </c>
       <c r="C47">
-        <v>0.7790278324300782</v>
+        <v>0.7738116161033347</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>1212.757836628093</v>
+        <v>1211.195865093019</v>
       </c>
       <c r="B48">
-        <v>34.82467281437247</v>
+        <v>34.80223936894031</v>
       </c>
       <c r="C48">
-        <v>0.7794937614413328</v>
+        <v>0.7784898124002579</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>1213.518960875973</v>
+        <v>1212.607055645801</v>
       </c>
       <c r="B49">
-        <v>34.8355990457459</v>
+        <v>34.8225078885166</v>
       </c>
       <c r="C49">
-        <v>0.7799829700739018</v>
+        <v>0.7793968477529691</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>1212.838726245464</v>
+        <v>1217.448316369197</v>
       </c>
       <c r="B50">
-        <v>34.8258341787453</v>
+        <v>34.89195202864404</v>
       </c>
       <c r="C50">
-        <v>0.7795457528201538</v>
+        <v>0.7825085427817973</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>1212.409048363618</v>
+        <v>1214.310546322708</v>
       </c>
       <c r="B51">
-        <v>34.81966467908067</v>
+        <v>34.8469589250297</v>
       </c>
       <c r="C51">
-        <v>0.7792695796071584</v>
+        <v>0.7804917574828563</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>1213.496278076883</v>
+        <v>1212.936012008076</v>
       </c>
       <c r="B52">
-        <v>34.83527347498342</v>
+        <v>34.8272308977914</v>
       </c>
       <c r="C52">
-        <v>0.7799683908233426</v>
+        <v>0.7796082827356414</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>1217.370646234426</v>
+        <v>1204.444749186291</v>
       </c>
       <c r="B53">
-        <v>34.89083900158357</v>
+        <v>34.70511128330077</v>
       </c>
       <c r="C53">
-        <v>0.7824586207085826</v>
+        <v>0.7741505679335334</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>1213.993118102436</v>
+        <v>1210.196553512576</v>
       </c>
       <c r="B54">
-        <v>34.84240402300673</v>
+        <v>34.78787940522641</v>
       </c>
       <c r="C54">
-        <v>0.7802877321531964</v>
+        <v>0.7778475101044786</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>1203.62107315629</v>
+        <v>1212.249160696518</v>
       </c>
       <c r="B55">
-        <v>34.69324247106761</v>
+        <v>34.817368664167</v>
       </c>
       <c r="C55">
-        <v>0.7736211544698998</v>
+        <v>0.7791668126447294</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>1209.087950129433</v>
+        <v>1213.50934593447</v>
       </c>
       <c r="B56">
-        <v>34.77194199537082</v>
+        <v>34.83546104093456</v>
       </c>
       <c r="C56">
-        <v>0.777134961073688</v>
+        <v>0.7799767901205076</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>1221.507966204051</v>
+        <v>1210.705050962142</v>
       </c>
       <c r="B57">
-        <v>34.9500782002566</v>
+        <v>34.7951871810189</v>
       </c>
       <c r="C57">
-        <v>0.7851178614968042</v>
+        <v>0.7781743441827026</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>1213.137757956315</v>
+        <v>1209.294709534672</v>
       </c>
       <c r="B58">
-        <v>34.83012715963459</v>
+        <v>34.77491494647646</v>
       </c>
       <c r="C58">
-        <v>0.7797379538895204</v>
+        <v>0.7772678546008476</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>1212.659081543726</v>
+        <v>1210.473168613637</v>
       </c>
       <c r="B59">
-        <v>34.82325489588424</v>
+        <v>34.79185491769068</v>
       </c>
       <c r="C59">
-        <v>0.7794302871269645</v>
+        <v>0.7780253030150537</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>1214.831179528168</v>
+        <v>1214.086896062775</v>
       </c>
       <c r="B60">
-        <v>34.85442840627526</v>
+        <v>34.84374974170799</v>
       </c>
       <c r="C60">
-        <v>0.7808263917547579</v>
+        <v>0.7803480074471149</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>1215.068456900568</v>
+        <v>1216.307095780654</v>
       </c>
       <c r="B61">
-        <v>34.85783207401987</v>
+        <v>34.8755945580954</v>
       </c>
       <c r="C61">
-        <v>0.7809789005458249</v>
+        <v>0.7817750292126924</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>1212.980750836996</v>
+        <v>1202.835119956421</v>
       </c>
       <c r="B62">
-        <v>34.8278731885396</v>
+        <v>34.68191344139508</v>
       </c>
       <c r="C62">
-        <v>0.779637038384121</v>
+        <v>0.7731159871582007</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>1212.512795211306</v>
+        <v>1218.18214962618</v>
       </c>
       <c r="B63">
-        <v>34.82115442100255</v>
+        <v>34.9024662398831</v>
       </c>
       <c r="C63">
-        <v>0.7793362623513158</v>
+        <v>0.7829802102725967</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>1221.164228233491</v>
+        <v>1213.964373681433</v>
       </c>
       <c r="B64">
-        <v>34.94516029772208</v>
+        <v>34.84199152863442</v>
       </c>
       <c r="C64">
-        <v>0.7848969257126635</v>
+        <v>0.7802692568268245</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>1214.057168129847</v>
+        <v>1209.075730540406</v>
       </c>
       <c r="B65">
-        <v>34.84332314992138</v>
+        <v>34.7717662844499</v>
       </c>
       <c r="C65">
-        <v>0.7803288999735881</v>
+        <v>0.7771271069967066</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>1214.206833566869</v>
+        <v>1211.569819573759</v>
       </c>
       <c r="B66">
-        <v>34.84547077550926</v>
+        <v>34.80761151779534</v>
       </c>
       <c r="C66">
-        <v>0.7804250966510606</v>
+        <v>0.778730169688417</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>1213.936876606104</v>
+        <v>1219.03788724192</v>
       </c>
       <c r="B67">
-        <v>34.84159692961998</v>
+        <v>34.91472307267981</v>
       </c>
       <c r="C67">
-        <v>0.7802515832253577</v>
+        <v>0.78353023115289</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>1209.568112989709</v>
+        <v>1208.455618613028</v>
       </c>
       <c r="B68">
-        <v>34.7788457685086</v>
+        <v>34.7628482523085</v>
       </c>
       <c r="C68">
-        <v>0.7774435832427268</v>
+        <v>0.7767285332961743</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>1214.932613230171</v>
+        <v>1217.417828552633</v>
       </c>
       <c r="B69">
-        <v>34.85588348084397</v>
+        <v>34.89151513695891</v>
       </c>
       <c r="C69">
-        <v>0.7808915877366186</v>
+        <v>0.7824889468970282</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>1215.576558776566</v>
+        <v>1212.356711770546</v>
       </c>
       <c r="B70">
-        <v>34.86511951473229</v>
+        <v>34.81891313310262</v>
       </c>
       <c r="C70">
-        <v>0.7813054803712003</v>
+        <v>0.7792359405354811</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>1223.323646933884</v>
+        <v>1202.490841910823</v>
       </c>
       <c r="B71">
-        <v>34.97604390055977</v>
+        <v>34.67694972039529</v>
       </c>
       <c r="C71">
-        <v>0.7862848807968972</v>
+        <v>0.7728947042436412</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>1211.030831278453</v>
+        <v>1200.202351351248</v>
       </c>
       <c r="B72">
-        <v>34.79986826524568</v>
+        <v>34.64393671843961</v>
       </c>
       <c r="C72">
-        <v>0.7783837377784359</v>
+        <v>0.7714237888964576</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>1210.975598716988</v>
+        <v>1203.671785868779</v>
       </c>
       <c r="B73">
-        <v>34.79907468190768</v>
+        <v>34.69397333642802</v>
       </c>
       <c r="C73">
-        <v>0.7783482373382072</v>
+        <v>0.7736537498008236</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>1211.206483318999</v>
+        <v>1206.953704084346</v>
       </c>
       <c r="B74">
-        <v>34.80239191950746</v>
+        <v>34.74123924220819</v>
       </c>
       <c r="C74">
-        <v>0.7784966372095096</v>
+        <v>0.7757631855820872</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>1210.578585926366</v>
+        <v>1203.741159757652</v>
       </c>
       <c r="B75">
-        <v>34.79336985585567</v>
+        <v>34.69497311942541</v>
       </c>
       <c r="C75">
-        <v>0.7780930594418928</v>
+        <v>0.7736983395053417</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>1218.53195580294</v>
+        <v>1210.584990232522</v>
       </c>
       <c r="B76">
-        <v>34.90747707587789</v>
+        <v>34.79346188916133</v>
       </c>
       <c r="C76">
-        <v>0.7832050463645658</v>
+        <v>0.7780971757762004</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>1212.890525126728</v>
+        <v>1210.677251479392</v>
       </c>
       <c r="B77">
-        <v>34.8265778555219</v>
+        <v>34.79478770562326</v>
       </c>
       <c r="C77">
-        <v>0.7795790462803819</v>
+        <v>0.778156476210446</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>1223.888651645872</v>
+        <v>1212.656849447185</v>
       </c>
       <c r="B78">
-        <v>34.98411999244617</v>
+        <v>34.82322284693341</v>
       </c>
       <c r="C78">
-        <v>0.7866480346227348</v>
+        <v>0.779428852458581</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>1211.78178916225</v>
+        <v>1215.370033861331</v>
       </c>
       <c r="B79">
-        <v>34.81065625871264</v>
+        <v>34.86215761913382</v>
       </c>
       <c r="C79">
-        <v>0.7788664120336291</v>
+        <v>0.7811727375612671</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>1208.448923026391</v>
+        <v>1209.287313475392</v>
       </c>
       <c r="B80">
-        <v>34.76275194840579</v>
+        <v>34.77480860443939</v>
       </c>
       <c r="C80">
-        <v>0.7767242297428519</v>
+        <v>0.7772631008224028</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>1217.755043564966</v>
+        <v>1206.218052494135</v>
       </c>
       <c r="B81">
-        <v>34.89634713784476</v>
+        <v>34.73065004422081</v>
       </c>
       <c r="C81">
-        <v>0.7827056900838665</v>
+        <v>0.7752903493671013</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>1220.766920952202</v>
+        <v>1208.35342978511</v>
       </c>
       <c r="B82">
-        <v>34.93947510985536</v>
+        <v>34.76137842182197</v>
       </c>
       <c r="C82">
-        <v>0.7846415585339925</v>
+        <v>0.7766628519610845</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>1214.406409207952</v>
+        <v>1211.401259694671</v>
       </c>
       <c r="B83">
-        <v>34.84833438211864</v>
+        <v>34.80519012582278</v>
       </c>
       <c r="C83">
-        <v>0.7805533728513535</v>
+        <v>0.7786218287070472</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>1208.904699934969</v>
+        <v>1210.736023109403</v>
       </c>
       <c r="B84">
-        <v>34.76930686589782</v>
+        <v>34.79563224184039</v>
       </c>
       <c r="C84">
-        <v>0.7770171779688951</v>
+        <v>0.77819425136849</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>1209.935030315063</v>
+        <v>1207.978060340065</v>
       </c>
       <c r="B85">
-        <v>34.7841203757557</v>
+        <v>34.75597877114188</v>
       </c>
       <c r="C85">
-        <v>0.7776794174360285</v>
+        <v>0.7764215852120299</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>1217.934983346843</v>
+        <v>1208.100485458813</v>
       </c>
       <c r="B86">
-        <v>34.8989252463001</v>
+        <v>34.75773993600293</v>
       </c>
       <c r="C86">
-        <v>0.7828213454382835</v>
+        <v>0.7765002733172887</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>1211.941230732418</v>
+        <v>1205.344420710589</v>
       </c>
       <c r="B87">
-        <v>34.81294630927435</v>
+        <v>34.71807052113624</v>
       </c>
       <c r="C87">
-        <v>0.7789688922695912</v>
+        <v>0.7747288271039607</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>1228.471905453144</v>
+        <v>1209.804414232766</v>
       </c>
       <c r="B88">
-        <v>35.04956355581541</v>
+        <v>34.78224280049758</v>
       </c>
       <c r="C88">
-        <v>0.7895938970545864</v>
+        <v>0.7775954646317539</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>1223.1011181241</v>
+        <v>1209.759214401632</v>
       </c>
       <c r="B89">
-        <v>34.97286259550539</v>
+        <v>34.78159304002093</v>
       </c>
       <c r="C89">
-        <v>0.7861418515673739</v>
+        <v>0.7775664126765127</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>1216.836107574394</v>
+        <v>1210.080168066596</v>
       </c>
       <c r="B90">
-        <v>34.88317800279089</v>
+        <v>34.78620657770254</v>
       </c>
       <c r="C90">
-        <v>0.7821150487784305</v>
+        <v>0.777772703967326</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>1219.422642195929</v>
+        <v>1213.224424054659</v>
       </c>
       <c r="B91">
-        <v>34.92023256216844</v>
+        <v>34.83137126290981</v>
       </c>
       <c r="C91">
-        <v>0.7837775303888032</v>
+        <v>0.7797936580713063</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>1214.67388943359</v>
+        <v>1212.544144772377</v>
       </c>
       <c r="B92">
-        <v>34.85217194714829</v>
+        <v>34.82160456918057</v>
       </c>
       <c r="C92">
-        <v>0.7807252943684957</v>
+        <v>0.779356412117856</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>1210.081653884823</v>
+        <v>1205.464743030572</v>
       </c>
       <c r="B93">
-        <v>34.78622793412391</v>
+        <v>34.71980332649613</v>
       </c>
       <c r="C93">
-        <v>0.7777736589692247</v>
+        <v>0.7748061636463017</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>1216.724027048552</v>
+        <v>1212.313069673041</v>
       </c>
       <c r="B94">
-        <v>34.88157145325525</v>
+        <v>34.81828642643175</v>
       </c>
       <c r="C94">
-        <v>0.7820430096061897</v>
+        <v>0.7792078898053945</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>1212.078313931585</v>
+        <v>1203.635730308374</v>
       </c>
       <c r="B95">
-        <v>34.81491510734423</v>
+        <v>34.6934537097184</v>
       </c>
       <c r="C95">
-        <v>0.7790570017794399</v>
+        <v>0.7736305752778102</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>1215.912975350153</v>
+        <v>1209.378737317473</v>
       </c>
       <c r="B96">
-        <v>34.8699437245051</v>
+        <v>34.77612309210836</v>
       </c>
       <c r="C96">
-        <v>0.7815217103657116</v>
+        <v>0.7773218630191037</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>1208.854400935611</v>
+        <v>1211.813909098021</v>
       </c>
       <c r="B97">
-        <v>34.76858353363868</v>
+        <v>34.81111760771292</v>
       </c>
       <c r="C97">
-        <v>0.7769848485499221</v>
+        <v>0.7788870569544858</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>1218.183054543992</v>
+        <v>1212.617053231624</v>
       </c>
       <c r="B98">
-        <v>34.90247920340318</v>
+        <v>34.82265143884974</v>
       </c>
       <c r="C98">
-        <v>0.7829807919037877</v>
+        <v>0.7794032736490127</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>1217.208090632922</v>
+        <v>1203.319521316722</v>
       </c>
       <c r="B99">
-        <v>34.88850943552794</v>
+        <v>34.68889622511391</v>
       </c>
       <c r="C99">
-        <v>0.7823541389452514</v>
+        <v>0.7734273336009719</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>1210.217309696229</v>
+        <v>1203.527945162165</v>
       </c>
       <c r="B100">
-        <v>34.78817772888125</v>
+        <v>34.69190028179726</v>
       </c>
       <c r="C100">
-        <v>0.777860851033052</v>
+        <v>0.7735612969383864</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>1219.718730809229</v>
+        <v>1210.087623198258</v>
       </c>
       <c r="B101">
-        <v>34.92447180429833</v>
+        <v>34.78631373397099</v>
       </c>
       <c r="C101">
-        <v>0.7839678397976003</v>
+        <v>0.7777774957142383</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>1208.079026250048</v>
+      </c>
+      <c r="B102">
+        <v>34.757431237795</v>
+      </c>
+      <c r="C102">
+        <v>0.7764864805229973</v>
       </c>
     </row>
   </sheetData>
@@ -1480,7 +1491,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1499,1102 +1510,1113 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>212.2434202012882</v>
+        <v>197.6396984192163</v>
       </c>
       <c r="B2">
-        <v>14.56857646447614</v>
+        <v>14.05843869066605</v>
       </c>
       <c r="C2">
-        <v>0.1364183491189521</v>
+        <v>0.1270318832647294</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>191.8190392190016</v>
+        <v>185.604997791197</v>
       </c>
       <c r="B3">
-        <v>13.84987506149429</v>
+        <v>13.62369251675907</v>
       </c>
       <c r="C3">
-        <v>0.123290684983415</v>
+        <v>0.1192966423311903</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>182.7269730837359</v>
+        <v>187.2189531454643</v>
       </c>
       <c r="B4">
-        <v>13.51765412650198</v>
+        <v>13.68279770900178</v>
       </c>
       <c r="C4">
-        <v>0.1174468069914524</v>
+        <v>0.1203340037003775</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>230.8123528180354</v>
+        <v>200.8866915646807</v>
       </c>
       <c r="B5">
-        <v>15.1925097603403</v>
+        <v>14.17345023502325</v>
       </c>
       <c r="C5">
-        <v>0.1483534335143849</v>
+        <v>0.1291188711397114</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>182.4633521873322</v>
+        <v>285.4609739184112</v>
       </c>
       <c r="B6">
-        <v>13.5078996216041</v>
+        <v>16.89559036904041</v>
       </c>
       <c r="C6">
-        <v>0.11727736603801</v>
+        <v>0.1834785491248949</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>237.3167443934514</v>
+        <v>203.0186095786366</v>
       </c>
       <c r="B7">
-        <v>15.4050882630854</v>
+        <v>14.24845990199069</v>
       </c>
       <c r="C7">
-        <v>0.152534097206573</v>
+        <v>0.1304891503014642</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>248.7713589881911</v>
+        <v>192.7542475201288</v>
       </c>
       <c r="B8">
-        <v>15.77248740649968</v>
+        <v>13.88359634677301</v>
       </c>
       <c r="C8">
-        <v>0.1598964908738364</v>
+        <v>0.1238917852314287</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>185.5687918867418</v>
+        <v>197.0862690606548</v>
       </c>
       <c r="B9">
-        <v>13.62236366739421</v>
+        <v>14.03874171928007</v>
       </c>
       <c r="C9">
-        <v>0.1192733711753197</v>
+        <v>0.126676169436817</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>180.4482875040257</v>
+        <v>226.8092979361245</v>
       </c>
       <c r="B10">
-        <v>13.43310416486174</v>
+        <v>15.06018917331799</v>
       </c>
       <c r="C10">
-        <v>0.1159821937438402</v>
+        <v>0.1457804909095916</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>198.6307742619431</v>
+        <v>211.2131524745035</v>
       </c>
       <c r="B11">
-        <v>14.09364304436376</v>
+        <v>14.53317420505594</v>
       </c>
       <c r="C11">
-        <v>0.1276688920831336</v>
+        <v>0.1357561499218918</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>191.0917443344069</v>
+        <v>210.4003000805153</v>
       </c>
       <c r="B12">
-        <v>13.82359375612604</v>
+        <v>14.50518183548608</v>
       </c>
       <c r="C12">
-        <v>0.1228232199972922</v>
+        <v>0.1352336932937424</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>181.9684171873323</v>
+        <v>207.9319167713366</v>
       </c>
       <c r="B13">
-        <v>13.48956697553084</v>
+        <v>14.41984454740538</v>
       </c>
       <c r="C13">
-        <v>0.1169592491533633</v>
+        <v>0.1336471528219035</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>220.5821922275899</v>
+        <v>200.9163421846484</v>
       </c>
       <c r="B14">
-        <v>14.85200970332264</v>
+        <v>14.17449618803605</v>
       </c>
       <c r="C14">
-        <v>0.1417780512592045</v>
+        <v>0.1291379289207372</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>190.4718839801396</v>
+        <v>204.1471520397209</v>
       </c>
       <c r="B15">
-        <v>13.80115516832339</v>
+        <v>14.28800728022354</v>
       </c>
       <c r="C15">
-        <v>0.1224248079940691</v>
+        <v>0.1312145150703958</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>195.9219702281267</v>
+        <v>190.8359988325282</v>
       </c>
       <c r="B16">
-        <v>13.99721294501611</v>
+        <v>13.81434033287613</v>
       </c>
       <c r="C16">
-        <v>0.1259278224470073</v>
+        <v>0.1226588409125231</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>185.2067984648416</v>
+        <v>186.1679202281267</v>
       </c>
       <c r="B17">
-        <v>13.60907044822833</v>
+        <v>13.64433656240298</v>
       </c>
       <c r="C17">
-        <v>0.1190407017952247</v>
+        <v>0.1196584577856114</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>186.8259876731079</v>
+        <v>221.8573680112722</v>
       </c>
       <c r="B18">
-        <v>13.66843032952606</v>
+        <v>14.89487724055731</v>
       </c>
       <c r="C18">
-        <v>0.1200814271967157</v>
+        <v>0.1425976638299089</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>180.6103132555019</v>
+        <v>194.7295060547504</v>
       </c>
       <c r="B19">
-        <v>13.43913364973732</v>
+        <v>13.95455144584556</v>
       </c>
       <c r="C19">
-        <v>0.1160863349488315</v>
+        <v>0.1251613723315638</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>219.4770929575953</v>
+        <v>250.973028733226</v>
       </c>
       <c r="B20">
-        <v>14.81475929462222</v>
+        <v>15.84212828925539</v>
       </c>
       <c r="C20">
-        <v>0.1410677544788271</v>
+        <v>0.1613116025962064</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>191.8705423403113</v>
+        <v>238.9890219431025</v>
       </c>
       <c r="B21">
-        <v>13.85173427193546</v>
+        <v>15.4592697739286</v>
       </c>
       <c r="C21">
-        <v>0.1233237883454743</v>
+        <v>0.1536089448620421</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>178.3751728958669</v>
+        <v>202.5460807783145</v>
       </c>
       <c r="B22">
-        <v>13.35571686192347</v>
+        <v>14.23186849216625</v>
       </c>
       <c r="C22">
-        <v>0.1146497101638492</v>
+        <v>0.130185434884562</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>196.2892488271605</v>
+        <v>222.5385852012882</v>
       </c>
       <c r="B23">
-        <v>14.01032650680063</v>
+        <v>14.91772721299355</v>
       </c>
       <c r="C23">
-        <v>0.1261638888470841</v>
+        <v>0.1430355126186497</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>194.1694737493291</v>
+        <v>180.9246378609769</v>
       </c>
       <c r="B24">
-        <v>13.93447070215906</v>
+        <v>13.45082294363348</v>
       </c>
       <c r="C24">
-        <v>0.1248014144940657</v>
+        <v>0.1162883654462934</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>199.9081594337091</v>
+        <v>201.9862381749866</v>
       </c>
       <c r="B25">
-        <v>14.13888819652058</v>
+        <v>14.21218625599125</v>
       </c>
       <c r="C25">
-        <v>0.1284899247264828</v>
+        <v>0.1298255989770927</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>219.0062555689748</v>
+        <v>178.3729981588835</v>
       </c>
       <c r="B26">
-        <v>14.79885994152843</v>
+        <v>13.35563544571667</v>
       </c>
       <c r="C26">
-        <v>0.1407651262079568</v>
+        <v>0.1146483123630182</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>188.7778500268384</v>
+        <v>182.4924273939882</v>
       </c>
       <c r="B27">
-        <v>13.73964519290212</v>
+        <v>13.50897580847594</v>
       </c>
       <c r="C27">
-        <v>0.1213359765238559</v>
+        <v>0.1172960539751374</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>226.882790891036</v>
+        <v>203.4905876784755</v>
       </c>
       <c r="B28">
-        <v>15.06262895018781</v>
+        <v>14.26501271217364</v>
       </c>
       <c r="C28">
-        <v>0.145827728122276</v>
+        <v>0.1307925117585076</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>183.0248023537306</v>
+        <v>208.8405949785293</v>
       </c>
       <c r="B29">
-        <v>13.52866594878189</v>
+        <v>14.45131810522934</v>
       </c>
       <c r="C29">
-        <v>0.1176382351982413</v>
+        <v>0.1342312009906896</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>205.8374622920022</v>
+        <v>202.0677991733762</v>
       </c>
       <c r="B30">
-        <v>14.34703670769689</v>
+        <v>14.21505537004258</v>
       </c>
       <c r="C30">
-        <v>0.132300953151239</v>
+        <v>0.1298780218825583</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>215.8530379495438</v>
+        <v>210.3076158615137</v>
       </c>
       <c r="B31">
-        <v>14.69193785548876</v>
+        <v>14.50198661775392</v>
       </c>
       <c r="C31">
-        <v>0.1387384120622478</v>
+        <v>0.1351741209963606</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>193.2565419189479</v>
+        <v>185.6947677804616</v>
       </c>
       <c r="B32">
-        <v>13.90167406893673</v>
+        <v>13.62698674617619</v>
       </c>
       <c r="C32">
-        <v>0.1242146323312041</v>
+        <v>0.1193543415226398</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>201.3778850187869</v>
+        <v>216.841026422437</v>
       </c>
       <c r="B33">
-        <v>14.19076759794152</v>
+        <v>14.72552295921734</v>
       </c>
       <c r="C33">
-        <v>0.129434583165289</v>
+        <v>0.1393734364898269</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>200.1348608024691</v>
+        <v>182.4910018545357</v>
       </c>
       <c r="B34">
-        <v>14.14690286962023</v>
+        <v>13.50892304569597</v>
       </c>
       <c r="C34">
-        <v>0.1286356358464788</v>
+        <v>0.1172951377171038</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>178.6814130542136</v>
+        <v>175.1747801610306</v>
       </c>
       <c r="B35">
-        <v>13.36717670468277</v>
+        <v>13.23536097584915</v>
       </c>
       <c r="C35">
-        <v>0.1148465444251701</v>
+        <v>0.1125926744592579</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>198.4470652683843</v>
+        <v>229.371909554482</v>
       </c>
       <c r="B36">
-        <v>14.08712409501614</v>
+        <v>15.14502920282698</v>
       </c>
       <c r="C36">
-        <v>0.1275508140876139</v>
+        <v>0.1474275961347048</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>187.7810701234568</v>
+        <v>192.7552880220075</v>
       </c>
       <c r="B37">
-        <v>13.70332332405015</v>
+        <v>13.8836338190694</v>
       </c>
       <c r="C37">
-        <v>0.1206953014502756</v>
+        <v>0.1238924540085734</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>188.2454507595276</v>
+        <v>225.7722681078905</v>
       </c>
       <c r="B38">
-        <v>13.72025694947174</v>
+        <v>15.0257202192737</v>
       </c>
       <c r="C38">
-        <v>0.1209937796771883</v>
+        <v>0.1451139454071649</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>216.2048918008588</v>
+        <v>182.917279127751</v>
       </c>
       <c r="B39">
-        <v>14.70390736508017</v>
+        <v>13.52469146146229</v>
       </c>
       <c r="C39">
-        <v>0.1389645642863404</v>
+        <v>0.1175691252066755</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>196.4839800993022</v>
+        <v>210.0834780300591</v>
       </c>
       <c r="B40">
-        <v>14.01727434629508</v>
+        <v>14.4942567256848</v>
       </c>
       <c r="C40">
-        <v>0.1262890513545593</v>
+        <v>0.1350300575765716</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>222.2441838164251</v>
+        <v>178.1972699624262</v>
       </c>
       <c r="B41">
-        <v>14.9078564460631</v>
+        <v>13.3490550213274</v>
       </c>
       <c r="C41">
-        <v>0.142846287667115</v>
+        <v>0.1145353639831276</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>208.2085672812668</v>
+        <v>218.2397071980676</v>
       </c>
       <c r="B42">
-        <v>14.42943405963196</v>
+        <v>14.77293834002118</v>
       </c>
       <c r="C42">
-        <v>0.1338249684913449</v>
+        <v>0.1402724312486512</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>209.5484047235641</v>
+        <v>184.6172650697799</v>
       </c>
       <c r="B43">
-        <v>14.47578684298592</v>
+        <v>13.58739360840702</v>
       </c>
       <c r="C43">
-        <v>0.1346861420051935</v>
+        <v>0.118661782286537</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>249.4829624637681</v>
+        <v>190.8717643692968</v>
       </c>
       <c r="B44">
-        <v>15.79502967593819</v>
+        <v>13.81563477981728</v>
       </c>
       <c r="C44">
-        <v>0.1603538702888185</v>
+        <v>0.1226818290243651</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>181.1469240552872</v>
+        <v>217.9739447181964</v>
       </c>
       <c r="B45">
-        <v>13.45908332893764</v>
+        <v>14.76394069068948</v>
       </c>
       <c r="C45">
-        <v>0.1164312387359861</v>
+        <v>0.1401016138036277</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>194.2681762077295</v>
+        <v>217.5042582850242</v>
       </c>
       <c r="B46">
-        <v>13.93801191733346</v>
+        <v>14.74802557242915</v>
       </c>
       <c r="C46">
-        <v>0.1248648549833684</v>
+        <v>0.1397997253033563</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>209.9351610520666</v>
+        <v>221.6793322329576</v>
       </c>
       <c r="B47">
-        <v>14.48913941723478</v>
+        <v>14.88889963136825</v>
       </c>
       <c r="C47">
-        <v>0.1349347276140922</v>
+        <v>0.1424832322638387</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>212.5976710923242</v>
+        <v>177.3691533762748</v>
       </c>
       <c r="B48">
-        <v>14.58072944308083</v>
+        <v>13.31800110287857</v>
       </c>
       <c r="C48">
-        <v>0.1366460420277976</v>
+        <v>0.1140030963752378</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>233.6524667659689</v>
+        <v>239.0278310547504</v>
       </c>
       <c r="B49">
-        <v>15.28569484079703</v>
+        <v>15.46052492817597</v>
       </c>
       <c r="C49">
-        <v>0.150178901911564</v>
+        <v>0.1536338892157319</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>206.4380741358025</v>
+        <v>218.1731015780999</v>
       </c>
       <c r="B50">
-        <v>14.36795302525041</v>
+        <v>14.7706838561422</v>
       </c>
       <c r="C50">
-        <v>0.1326869932749552</v>
+        <v>0.1402296208345076</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>202.9555735158347</v>
+        <v>234.0445419994632</v>
       </c>
       <c r="B51">
-        <v>14.24624769951143</v>
+        <v>15.29851437229979</v>
       </c>
       <c r="C51">
-        <v>0.1304486342015333</v>
+        <v>0.1504309062188499</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>197.5839975818572</v>
+        <v>192.7049372007515</v>
       </c>
       <c r="B52">
-        <v>14.05645750471495</v>
+        <v>13.88182038497659</v>
       </c>
       <c r="C52">
-        <v>0.1269960818426186</v>
+        <v>0.1238600912813516</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>188.6203305018787</v>
+        <v>216.4406209473967</v>
       </c>
       <c r="B53">
-        <v>13.73391169703223</v>
+        <v>14.71192104884324</v>
       </c>
       <c r="C53">
-        <v>0.1212347316724082</v>
+        <v>0.1391160779633229</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>178.5022762882448</v>
+        <v>198.5539275818572</v>
       </c>
       <c r="B54">
-        <v>13.36047440356235</v>
+        <v>14.0909164919056</v>
       </c>
       <c r="C54">
-        <v>0.1147314052050392</v>
+        <v>0.1276194992811205</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>201.0792640848095</v>
+        <v>201.6002166532475</v>
       </c>
       <c r="B55">
-        <v>14.18024203195451</v>
+        <v>14.19859910882927</v>
       </c>
       <c r="C55">
-        <v>0.129242646120612</v>
+        <v>0.1295774856614005</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>175.2298261943102</v>
+        <v>205.6470418464842</v>
       </c>
       <c r="B56">
-        <v>13.23744031881958</v>
+        <v>14.34039894307282</v>
       </c>
       <c r="C56">
-        <v>0.1126280550094697</v>
+        <v>0.1321785614050474</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>211.0992372732153</v>
+        <v>202.1611360225443</v>
       </c>
       <c r="B57">
-        <v>14.52925453260474</v>
+        <v>14.21833801900012</v>
       </c>
       <c r="C57">
-        <v>0.1356829315216013</v>
+        <v>0.1299380136545682</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>203.5488873429952</v>
+        <v>206.1418200751476</v>
       </c>
       <c r="B58">
-        <v>14.26705601527502</v>
+        <v>14.3576397807978</v>
       </c>
       <c r="C58">
-        <v>0.1308299835631951</v>
+        <v>0.1324965775257368</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>215.7895375845411</v>
+        <v>197.0559372973699</v>
       </c>
       <c r="B59">
-        <v>14.68977663494381</v>
+        <v>14.03766138989575</v>
       </c>
       <c r="C59">
-        <v>0.1386975975345051</v>
+        <v>0.1266566738544846</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>201.1021272490606</v>
+        <v>190.9293295679012</v>
       </c>
       <c r="B60">
-        <v>14.18104817173472</v>
+        <v>13.81771795803856</v>
       </c>
       <c r="C60">
-        <v>0.1292573412999472</v>
+        <v>0.1227188287549241</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>224.3001940311326</v>
+        <v>246.8047394202899</v>
       </c>
       <c r="B61">
-        <v>14.97665496802048</v>
+        <v>15.71002035072806</v>
       </c>
       <c r="C61">
-        <v>0.1441677774876055</v>
+        <v>0.1586324564244121</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>199.7990976409018</v>
+        <v>175.8820544873859</v>
       </c>
       <c r="B62">
-        <v>14.13503086805621</v>
+        <v>13.26205317767147</v>
       </c>
       <c r="C62">
-        <v>0.1284198258291295</v>
+        <v>0.1130472713362026</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>200.9788169243156</v>
+        <v>209.6669295410628</v>
       </c>
       <c r="B63">
-        <v>14.17669978959545</v>
+        <v>14.47988016321485</v>
       </c>
       <c r="C63">
-        <v>0.1291780842331565</v>
+        <v>0.1347623232122115</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>207.7269355260333</v>
+        <v>190.5977476784756</v>
       </c>
       <c r="B64">
-        <v>14.41273518545433</v>
+        <v>13.80571431250392</v>
       </c>
       <c r="C64">
-        <v>0.1335154021977468</v>
+        <v>0.122505706228391</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>184.434321661299</v>
+        <v>219.239773682233</v>
       </c>
       <c r="B65">
-        <v>13.58065983895109</v>
+        <v>14.80674757271944</v>
       </c>
       <c r="C65">
-        <v>0.1185441963668249</v>
+        <v>0.1409152187548533</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>203.9039195356951</v>
+        <v>188.8850576623725</v>
       </c>
       <c r="B66">
-        <v>14.2794929719404</v>
+        <v>13.74354603668109</v>
       </c>
       <c r="C66">
-        <v>0.1310581786496021</v>
+        <v>0.1214048836713119</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>231.7548673564144</v>
+        <v>182.0638583950617</v>
       </c>
       <c r="B67">
-        <v>15.22349721175835</v>
+        <v>13.49310410524805</v>
       </c>
       <c r="C67">
-        <v>0.1489592298082082</v>
+        <v>0.1170205934908414</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>188.1793069618894</v>
+        <v>237.8654018223296</v>
       </c>
       <c r="B68">
-        <v>13.71784629458609</v>
+        <v>15.42288565160001</v>
       </c>
       <c r="C68">
-        <v>0.1209512660969344</v>
+        <v>0.1528867439016195</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>203.7732666371444</v>
+        <v>192.3733532420827</v>
       </c>
       <c r="B69">
-        <v>14.27491739510756</v>
+        <v>13.86987214223991</v>
       </c>
       <c r="C69">
-        <v>0.13097420218187</v>
+        <v>0.123646967424824</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>179.7265987466452</v>
+        <v>204.4573210547504</v>
       </c>
       <c r="B70">
-        <v>13.40621492989894</v>
+        <v>14.29885733388338</v>
       </c>
       <c r="C70">
-        <v>0.1155183320666858</v>
+        <v>0.1314138745838177</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>225.4102105743425</v>
+        <v>188.4809999168009</v>
       </c>
       <c r="B71">
-        <v>15.01366745916342</v>
+        <v>13.72883825809019</v>
       </c>
       <c r="C71">
-        <v>0.1448812348196428</v>
+        <v>0.1211451776670113</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>196.6143906092324</v>
+        <v>234.1285062050456</v>
       </c>
       <c r="B72">
-        <v>14.02192535314721</v>
+        <v>15.30125832096974</v>
       </c>
       <c r="C72">
-        <v>0.1263728720282716</v>
+        <v>0.1504848737731783</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>215.8437397208803</v>
+        <v>198.2513034004294</v>
       </c>
       <c r="B73">
-        <v>14.69162141224992</v>
+        <v>14.08017412535901</v>
       </c>
       <c r="C73">
-        <v>0.1387324356743681</v>
+        <v>0.1274249891700656</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>207.152092740204</v>
+        <v>198.2969612828771</v>
       </c>
       <c r="B74">
-        <v>14.39277918750246</v>
+        <v>14.0817953856345</v>
       </c>
       <c r="C74">
-        <v>0.1331459250013678</v>
+        <v>0.1274543355353948</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>207.3593499704777</v>
+        <v>226.6221642538916</v>
       </c>
       <c r="B75">
-        <v>14.39997742951279</v>
+        <v>15.05397503166162</v>
       </c>
       <c r="C75">
-        <v>0.1332791385029694</v>
+        <v>0.1456602117133244</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>222.5731229039184</v>
+        <v>205.7663017203435</v>
       </c>
       <c r="B76">
-        <v>14.91888477413504</v>
+        <v>14.34455651877546</v>
       </c>
       <c r="C76">
-        <v>0.1430577115465171</v>
+        <v>0.1322552150657008</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>212.5407809044552</v>
+        <v>250.4065529012346</v>
       </c>
       <c r="B77">
-        <v>14.57877844349296</v>
+        <v>15.82423940988111</v>
       </c>
       <c r="C77">
-        <v>0.1366094761568611</v>
+        <v>0.1609475032156809</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>225.1524813472893</v>
+        <v>224.7882839855072</v>
       </c>
       <c r="B78">
-        <v>15.00508185073608</v>
+        <v>14.99294113859943</v>
       </c>
       <c r="C78">
-        <v>0.1447155807058854</v>
+        <v>0.1444814947549496</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>260.5200247342995</v>
+        <v>250.0795949812131</v>
       </c>
       <c r="B79">
-        <v>16.14063272410036</v>
+        <v>15.81390511484159</v>
       </c>
       <c r="C79">
-        <v>0.1674478843818868</v>
+        <v>0.1607373527213166</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>194.3763814975846</v>
+        <v>200.4890867713365</v>
       </c>
       <c r="B80">
-        <v>13.94189303852187</v>
+        <v>14.15941689376143</v>
       </c>
       <c r="C80">
-        <v>0.1249344033679261</v>
+        <v>0.1288633127367307</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>231.3586936017176</v>
+        <v>257.7422961325819</v>
       </c>
       <c r="B81">
-        <v>15.21047972950616</v>
+        <v>16.05435442901962</v>
       </c>
       <c r="C81">
-        <v>0.1487045911978384</v>
+        <v>0.1656625138399519</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>189.3829768464842</v>
+        <v>186.0083507944176</v>
       </c>
       <c r="B82">
-        <v>13.76164876918766</v>
+        <v>13.63848784852696</v>
       </c>
       <c r="C82">
-        <v>0.121724918624701</v>
+        <v>0.1195558953660286</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>256.426813972088</v>
+        <v>266.7484212640902</v>
       </c>
       <c r="B83">
-        <v>16.01333238186506</v>
+        <v>16.332434639823</v>
       </c>
       <c r="C83">
-        <v>0.1648169945561987</v>
+        <v>0.1714511537008906</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>207.7070638674181</v>
+        <v>245.7158905260333</v>
       </c>
       <c r="B84">
-        <v>14.41204579049824</v>
+        <v>15.67532744557616</v>
       </c>
       <c r="C84">
-        <v>0.1335026297930243</v>
+        <v>0.157932604488113</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>199.4037584621578</v>
+        <v>216.9910405367686</v>
       </c>
       <c r="B85">
-        <v>14.12103956733207</v>
+        <v>14.73061575551982</v>
       </c>
       <c r="C85">
-        <v>0.1281657236380925</v>
+        <v>0.1394698572778172</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>181.0737360950081</v>
+        <v>204.2272157139023</v>
       </c>
       <c r="B86">
-        <v>13.45636414842464</v>
+        <v>14.29080878445661</v>
       </c>
       <c r="C86">
-        <v>0.116384197557007</v>
+        <v>0.1312659755785512</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>176.4968368062265</v>
+        <v>246.6331766988728</v>
       </c>
       <c r="B87">
-        <v>13.28521120668492</v>
+        <v>15.70455910552324</v>
       </c>
       <c r="C87">
-        <v>0.1134424194586942</v>
+        <v>0.1585221853818328</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>206.1655879200214</v>
+        <v>184.0350092565754</v>
       </c>
       <c r="B88">
-        <v>14.35846746418368</v>
+        <v>13.56595036319149</v>
       </c>
       <c r="C88">
-        <v>0.1325118541838163</v>
+        <v>0.1182875404055544</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>196.2997914278046</v>
+        <v>181.0149455152979</v>
       </c>
       <c r="B89">
-        <v>14.01070274567998</v>
+        <v>13.45417948130981</v>
       </c>
       <c r="C89">
-        <v>0.1261706650485512</v>
+        <v>0.1163464102191471</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>192.4191780837359</v>
+        <v>204.8565709232421</v>
       </c>
       <c r="B90">
-        <v>13.87152400004181</v>
+        <v>14.31281142624474</v>
       </c>
       <c r="C90">
-        <v>0.1236764211023086</v>
+        <v>0.1316704903502514</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>213.2206761084273</v>
+        <v>189.4237299463231</v>
       </c>
       <c r="B91">
-        <v>14.60207780106747</v>
+        <v>13.76312936603893</v>
       </c>
       <c r="C91">
-        <v>0.1370464752459819</v>
+        <v>0.1217511124666403</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>211.7958813472893</v>
+        <v>195.7825587627482</v>
       </c>
       <c r="B92">
-        <v>14.55320862721652</v>
+        <v>13.99223208650958</v>
       </c>
       <c r="C92">
-        <v>0.1361306958594485</v>
+        <v>0.1258382164562202</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>185.159262962963</v>
+        <v>252.1063871390231</v>
       </c>
       <c r="B93">
-        <v>13.6073238722007</v>
+        <v>15.87785839271226</v>
       </c>
       <c r="C93">
-        <v>0.1190101485998188</v>
+        <v>0.1620400627884348</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>212.109295187869</v>
+        <v>251.7910153891573</v>
       </c>
       <c r="B94">
-        <v>14.56397250711045</v>
+        <v>15.86792410459406</v>
       </c>
       <c r="C94">
-        <v>0.1363321409675334</v>
+        <v>0.1618373592443874</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>198.1283278958669</v>
+        <v>185.8260323188406</v>
       </c>
       <c r="B95">
-        <v>14.07580647408406</v>
+        <v>13.63180224030706</v>
       </c>
       <c r="C95">
-        <v>0.1273459473071971</v>
+        <v>0.1194387111186755</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>238.5188262936125</v>
+        <v>179.8916988405797</v>
       </c>
       <c r="B96">
-        <v>15.44405472321348</v>
+        <v>13.41237111179749</v>
       </c>
       <c r="C96">
-        <v>0.1533067290656437</v>
+        <v>0.1156244492892249</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>232.8009784648416</v>
+        <v>205.0780266076221</v>
       </c>
       <c r="B97">
-        <v>15.25781696262088</v>
+        <v>14.32054561138025</v>
       </c>
       <c r="C97">
-        <v>0.1496316122560183</v>
+        <v>0.1318128298340271</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>188.4203730085883</v>
+        <v>228.38145363124</v>
       </c>
       <c r="B98">
-        <v>13.72663006744876</v>
+        <v>15.11229478375935</v>
       </c>
       <c r="C98">
-        <v>0.1211062100386033</v>
+        <v>0.1467909857663092</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>178.4988951663983</v>
+        <v>204.4905061755233</v>
       </c>
       <c r="B99">
-        <v>13.36034786846504</v>
+        <v>14.30001769843392</v>
       </c>
       <c r="C99">
-        <v>0.1147292320066415</v>
+        <v>0.1314352041467635</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>188.1749557326892</v>
+        <v>242.4611512023618</v>
       </c>
       <c r="B100">
-        <v>13.71768769628064</v>
+        <v>15.57116409271837</v>
       </c>
       <c r="C100">
-        <v>0.1209484693671055</v>
+        <v>0.1558406377975711</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>197.7004939855073</v>
+        <v>204.7070666156737</v>
       </c>
       <c r="B101">
-        <v>14.06060076901081</v>
+        <v>14.30758772874287</v>
       </c>
       <c r="C101">
-        <v>0.1270709592972362</v>
+        <v>0.1315743972378931</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>215.5139692404724</v>
+      </c>
+      <c r="B102">
+        <v>14.68039404241155</v>
+      </c>
+      <c r="C102">
+        <v>0.1385204774215157</v>
       </c>
     </row>
   </sheetData>
@@ -2604,7 +2626,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2623,1102 +2645,1113 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>256.9129720106396</v>
+        <v>282.7206203402706</v>
       </c>
       <c r="B2">
-        <v>16.0285049836421</v>
+        <v>16.81429809240548</v>
       </c>
       <c r="C2">
-        <v>0.1651294700947477</v>
+        <v>0.1817172011840412</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>264.2337395124522</v>
+        <v>256.8029596090271</v>
       </c>
       <c r="B3">
-        <v>16.25526805415562</v>
+        <v>16.0250728425498</v>
       </c>
       <c r="C3">
-        <v>0.1698348551471251</v>
+        <v>0.1650587601985509</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>256.5925589260128</v>
+        <v>249.8125334288315</v>
       </c>
       <c r="B4">
-        <v>16.0185067633039</v>
+        <v>15.80545897558282</v>
       </c>
       <c r="C4">
-        <v>0.1649235262591294</v>
+        <v>0.1605657003042277</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>289.3005923456224</v>
+        <v>257.6533991135207</v>
       </c>
       <c r="B5">
-        <v>17.00883865364189</v>
+        <v>16.0515855638476</v>
       </c>
       <c r="C5">
-        <v>0.1859464438025719</v>
+        <v>0.1656053757455422</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>237.5136307340047</v>
+        <v>310.6010087801503</v>
       </c>
       <c r="B6">
-        <v>15.41147724048557</v>
+        <v>17.62387609977301</v>
       </c>
       <c r="C6">
-        <v>0.1526606448730091</v>
+        <v>0.1996371751467473</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>276.322912120702</v>
+        <v>265.3476967879208</v>
       </c>
       <c r="B7">
-        <v>16.6229633976828</v>
+        <v>16.28949651732431</v>
       </c>
       <c r="C7">
-        <v>0.1776051076612796</v>
+        <v>0.1705508453642268</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>256.60264510101</v>
+        <v>257.3973066119242</v>
       </c>
       <c r="B8">
-        <v>16.01882158902489</v>
+        <v>16.0436064091564</v>
       </c>
       <c r="C8">
-        <v>0.1649300090953952</v>
+        <v>0.1654407736285163</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>261.3851478769214</v>
+        <v>276.9908451688618</v>
       </c>
       <c r="B9">
-        <v>16.1674100547033</v>
+        <v>16.64304194457437</v>
       </c>
       <c r="C9">
-        <v>0.1680039377605491</v>
+        <v>0.1780344181372692</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>241.2655762446113</v>
+        <v>255.8587478462076</v>
       </c>
       <c r="B10">
-        <v>15.53272597597122</v>
+        <v>15.99558526113401</v>
       </c>
       <c r="C10">
-        <v>0.1550721882417301</v>
+        <v>0.164451873022589</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>264.006365776393</v>
+        <v>238.1549150998293</v>
       </c>
       <c r="B11">
-        <v>16.24827270131792</v>
+        <v>15.43226863101564</v>
       </c>
       <c r="C11">
-        <v>0.1696887118665628</v>
+        <v>0.1530728270476939</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>243.6386725682973</v>
+        <v>238.4486262523162</v>
       </c>
       <c r="B12">
-        <v>15.60892925758514</v>
+        <v>15.44178183540734</v>
       </c>
       <c r="C12">
-        <v>0.1565974835016286</v>
+        <v>0.1532616083559775</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>266.7101377242043</v>
+        <v>302.6147709901817</v>
       </c>
       <c r="B13">
-        <v>16.33126258818357</v>
+        <v>17.39582625201177</v>
       </c>
       <c r="C13">
-        <v>0.1714265471557062</v>
+        <v>0.1945040625445035</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>276.189470931694</v>
+        <v>254.9689088921582</v>
       </c>
       <c r="B14">
-        <v>16.61894915244926</v>
+        <v>15.96774589264741</v>
       </c>
       <c r="C14">
-        <v>0.1775193390344266</v>
+        <v>0.1638799336853011</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>261.0294581895513</v>
+        <v>255.2050141745287</v>
       </c>
       <c r="B15">
-        <v>16.15640610375808</v>
+        <v>15.9751373757639</v>
       </c>
       <c r="C15">
-        <v>0.1677753200728803</v>
+        <v>0.1640316891216266</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>283.2194122603935</v>
+        <v>245.3819885565312</v>
       </c>
       <c r="B16">
-        <v>16.82912393027021</v>
+        <v>15.66467326682977</v>
       </c>
       <c r="C16">
-        <v>0.1820377970839382</v>
+        <v>0.1577179907422424</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>255.5739907183028</v>
+        <v>246.900546664531</v>
       </c>
       <c r="B17">
-        <v>15.98668166688456</v>
+        <v>15.71306929484278</v>
       </c>
       <c r="C17">
-        <v>0.1642688468668108</v>
+        <v>0.1586940360299459</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>243.7652843585893</v>
+        <v>298.9384319088095</v>
       </c>
       <c r="B18">
-        <v>15.61298447954744</v>
+        <v>17.28983608681151</v>
       </c>
       <c r="C18">
-        <v>0.1566788625681462</v>
+        <v>0.1921411148130383</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>305.5774732217814</v>
+        <v>258.6227944961589</v>
       </c>
       <c r="B19">
-        <v>17.48077438850411</v>
+        <v>16.08175346459953</v>
       </c>
       <c r="C19">
-        <v>0.196408323920344</v>
+        <v>0.166228449561529</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>280.0323972815033</v>
+        <v>281.4285710820038</v>
       </c>
       <c r="B20">
-        <v>16.734168556624</v>
+        <v>16.7758329474874</v>
       </c>
       <c r="C20">
-        <v>0.1799893598620653</v>
+        <v>0.1808867432757285</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>255.4242505252061</v>
+        <v>295.0644514515497</v>
       </c>
       <c r="B21">
-        <v>15.98199770132652</v>
+        <v>17.17744018914197</v>
       </c>
       <c r="C21">
-        <v>0.1641726021402604</v>
+        <v>0.1896511341201317</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>238.7904153370631</v>
+        <v>238.5210126939203</v>
       </c>
       <c r="B22">
-        <v>15.45284489461611</v>
+        <v>15.4441255075812</v>
       </c>
       <c r="C22">
-        <v>0.1534812915039594</v>
+        <v>0.1533081343630166</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>246.4428295146593</v>
+        <v>263.5311758975173</v>
       </c>
       <c r="B23">
-        <v>15.69849768336637</v>
+        <v>16.23364333406144</v>
       </c>
       <c r="C23">
-        <v>0.1583998407239668</v>
+        <v>0.1693832860553268</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>261.6446220766294</v>
+        <v>252.6819344919983</v>
       </c>
       <c r="B24">
-        <v>16.17543267046138</v>
+        <v>15.89597227262297</v>
       </c>
       <c r="C24">
-        <v>0.1681707134463592</v>
+        <v>0.1624099928416657</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>245.2050255704658</v>
+        <v>276.9102845532435</v>
       </c>
       <c r="B25">
-        <v>15.6590237745035</v>
+        <v>16.64062151943982</v>
       </c>
       <c r="C25">
-        <v>0.1576042487077807</v>
+        <v>0.1779826382226011</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>291.3529397625028</v>
+        <v>237.5798867161549</v>
       </c>
       <c r="B26">
-        <v>17.06906382208769</v>
+        <v>15.41362665683047</v>
       </c>
       <c r="C26">
-        <v>0.1872655793789011</v>
+        <v>0.1527032305592725</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>242.5936432207343</v>
+        <v>261.4701299063221</v>
       </c>
       <c r="B27">
-        <v>15.57541791480198</v>
+        <v>16.1700380304538</v>
       </c>
       <c r="C27">
-        <v>0.1559257963499598</v>
+        <v>0.1680585595158171</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>277.3273971969689</v>
+        <v>285.7290637885017</v>
       </c>
       <c r="B28">
-        <v>16.65314976804595</v>
+        <v>16.9035222302484</v>
       </c>
       <c r="C28">
-        <v>0.1782507351944613</v>
+        <v>0.1836508624878189</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>243.5105037843689</v>
+        <v>247.3907867025248</v>
       </c>
       <c r="B29">
-        <v>15.60482309365822</v>
+        <v>15.72866131311005</v>
       </c>
       <c r="C29">
-        <v>0.1565151036855879</v>
+        <v>0.1590091352522985</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>283.397773660812</v>
+        <v>257.8475540306206</v>
       </c>
       <c r="B30">
-        <v>16.83442228473588</v>
+        <v>16.05763226726221</v>
       </c>
       <c r="C30">
-        <v>0.1821524379419163</v>
+        <v>0.1657301678038265</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>255.25309592855</v>
+        <v>276.9544425236002</v>
       </c>
       <c r="B31">
-        <v>15.97664219817637</v>
+        <v>16.64194827908079</v>
       </c>
       <c r="C31">
-        <v>0.164062593417743</v>
+        <v>0.1780110205272691</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>253.796497843393</v>
+        <v>250.6943584246156</v>
       </c>
       <c r="B32">
-        <v>15.93099174073582</v>
+        <v>15.83333061691745</v>
       </c>
       <c r="C32">
-        <v>0.1631263726109021</v>
+        <v>0.1611324887117226</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>256.2442233102677</v>
+        <v>287.5460963128373</v>
       </c>
       <c r="B33">
-        <v>16.00763015909187</v>
+        <v>16.9571842094387</v>
       </c>
       <c r="C33">
-        <v>0.1646996353625617</v>
+        <v>0.1848187506467566</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>258.0724360441283</v>
+        <v>238.9971709582406</v>
       </c>
       <c r="B34">
-        <v>16.06463308152814</v>
+        <v>15.45953333572009</v>
       </c>
       <c r="C34">
-        <v>0.1658747095427414</v>
+        <v>0.1536141825989361</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>250.2344980932139</v>
+        <v>245.5770938324912</v>
       </c>
       <c r="B35">
-        <v>15.81880204355608</v>
+        <v>15.67089958593607</v>
       </c>
       <c r="C35">
-        <v>0.1608369158870124</v>
+        <v>0.1578433936387116</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>241.9617918183161</v>
+        <v>261.7422053793073</v>
       </c>
       <c r="B36">
-        <v>15.55512108015608</v>
+        <v>16.17844879397612</v>
       </c>
       <c r="C36">
-        <v>0.1555196771632037</v>
+        <v>0.1682334346041695</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>247.4660021216199</v>
+        <v>272.8365805587088</v>
       </c>
       <c r="B37">
-        <v>15.73105216193818</v>
+        <v>16.51776560430341</v>
       </c>
       <c r="C37">
-        <v>0.1590574795698374</v>
+        <v>0.1753642862698886</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>238.4784729691899</v>
+        <v>328.9937177883054</v>
       </c>
       <c r="B38">
-        <v>15.44274823239665</v>
+        <v>18.13818397161925</v>
       </c>
       <c r="C38">
-        <v>0.1532807921772664</v>
+        <v>0.211458992738728</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>271.6115050016111</v>
+        <v>253.7805321118115</v>
       </c>
       <c r="B39">
-        <v>16.48064030921163</v>
+        <v>15.93049064253237</v>
       </c>
       <c r="C39">
-        <v>0.1745768753579904</v>
+        <v>0.1631161107203686</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>247.9605522645812</v>
+        <v>255.686215174361</v>
       </c>
       <c r="B40">
-        <v>15.74676323136222</v>
+        <v>15.99019121756713</v>
       </c>
       <c r="C40">
-        <v>0.1593753490896349</v>
+        <v>0.1643409785494391</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>273.5033444682473</v>
+        <v>243.3359341652839</v>
       </c>
       <c r="B41">
-        <v>16.53793652389098</v>
+        <v>15.59922864007333</v>
       </c>
       <c r="C41">
-        <v>0.17579284528814</v>
+        <v>0.1564028999752464</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>257.4087814360147</v>
+        <v>281.0379853730619</v>
       </c>
       <c r="B42">
-        <v>16.04396401878335</v>
+        <v>16.76418758464191</v>
       </c>
       <c r="C42">
-        <v>0.1654481490117314</v>
+        <v>0.1806356963525645</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>274.3154984270104</v>
+        <v>241.4240266689622</v>
       </c>
       <c r="B43">
-        <v>16.56247259400028</v>
+        <v>15.53782567378596</v>
       </c>
       <c r="C43">
-        <v>0.1763148530006981</v>
+        <v>0.1551740314238978</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>277.4608380330636</v>
+        <v>285.9260586714713</v>
       </c>
       <c r="B44">
-        <v>16.65715576060522</v>
+        <v>16.90934826276493</v>
       </c>
       <c r="C44">
-        <v>0.1783365035944797</v>
+        <v>0.1837774799193233</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>256.3831307020283</v>
+        <v>269.683719292048</v>
       </c>
       <c r="B45">
-        <v>16.01196835813849</v>
+        <v>16.42204978959837</v>
       </c>
       <c r="C45">
-        <v>0.164788917362666</v>
+        <v>0.1733378011680644</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>249.1714419806783</v>
+        <v>269.7195981527361</v>
       </c>
       <c r="B46">
-        <v>15.78516525034433</v>
+        <v>16.42314215224164</v>
       </c>
       <c r="C46">
-        <v>0.1601536421263663</v>
+        <v>0.1733608621182605</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>247.5751000762195</v>
+        <v>253.2109466790997</v>
       </c>
       <c r="B47">
-        <v>15.73451937862163</v>
+        <v>15.91260339099482</v>
       </c>
       <c r="C47">
-        <v>0.1591276017099924</v>
+        <v>0.1627500126602305</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>277.2072863098791</v>
+        <v>232.8912209916426</v>
       </c>
       <c r="B48">
-        <v>16.64954312616052</v>
+        <v>15.26077393160788</v>
       </c>
       <c r="C48">
-        <v>0.1781735345495037</v>
+        <v>0.1496896151685</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>286.0347752112025</v>
+        <v>294.4955639175095</v>
       </c>
       <c r="B49">
-        <v>16.91256264470889</v>
+        <v>17.16087305231029</v>
       </c>
       <c r="C49">
-        <v>0.1838473569070655</v>
+        <v>0.1892854846307164</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>268.4249116526572</v>
+        <v>258.855852968729</v>
       </c>
       <c r="B50">
-        <v>16.38367820889611</v>
+        <v>16.08899788578298</v>
       </c>
       <c r="C50">
-        <v>0.1725287091365587</v>
+        <v>0.1663782466767778</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>260.1684436912135</v>
+        <v>266.7013348403743</v>
       </c>
       <c r="B51">
-        <v>16.12973786802543</v>
+        <v>16.3309930757555</v>
       </c>
       <c r="C51">
-        <v>0.1672219075038602</v>
+        <v>0.1714208891481278</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>280.0813912287824</v>
+        <v>257.1298556493572</v>
       </c>
       <c r="B52">
-        <v>16.73563238209965</v>
+        <v>16.03526911683609</v>
       </c>
       <c r="C52">
-        <v>0.180020850465633</v>
+        <v>0.165268870920065</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>251.5603305714228</v>
+        <v>249.4940493754665</v>
       </c>
       <c r="B53">
-        <v>15.86065353544496</v>
+        <v>15.7953806340799</v>
       </c>
       <c r="C53">
-        <v>0.161689087783383</v>
+        <v>0.1603609963433728</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>276.8965528809748</v>
+        <v>250.2739125299163</v>
       </c>
       <c r="B54">
-        <v>16.64020891939085</v>
+        <v>15.82004780428669</v>
       </c>
       <c r="C54">
-        <v>0.1779738122620121</v>
+        <v>0.1608622493102171</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>258.0591563373606</v>
+        <v>266.049397228509</v>
       </c>
       <c r="B55">
-        <v>16.06421975501333</v>
+        <v>16.31102072920358</v>
       </c>
       <c r="C55">
-        <v>0.1658661740806163</v>
+        <v>0.1710018596552257</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>250.0488907438063</v>
+        <v>269.1677923149537</v>
       </c>
       <c r="B56">
-        <v>15.81293428633049</v>
+        <v>16.40633390843163</v>
       </c>
       <c r="C56">
-        <v>0.1607176177331915</v>
+        <v>0.1730061917998476</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>283.6044324612733</v>
+        <v>270.1351218179807</v>
       </c>
       <c r="B57">
-        <v>16.84055914930598</v>
+        <v>16.43578783685104</v>
       </c>
       <c r="C57">
-        <v>0.1822852668058771</v>
+        <v>0.1736279377825089</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>242.986998954982</v>
+        <v>258.7231085373159</v>
       </c>
       <c r="B58">
-        <v>15.58804025382864</v>
+        <v>16.08487203981791</v>
       </c>
       <c r="C58">
-        <v>0.1561786236924104</v>
+        <v>0.1662929258872275</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>270.9323918978416</v>
+        <v>253.6265763735478</v>
       </c>
       <c r="B59">
-        <v>16.4600240552024</v>
+        <v>15.92565780034055</v>
       </c>
       <c r="C59">
-        <v>0.1741403789596904</v>
+        <v>0.1630171564741931</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>254.187405661587</v>
+        <v>253.5552702175782</v>
       </c>
       <c r="B60">
-        <v>15.94325580493479</v>
+        <v>15.92341892363503</v>
       </c>
       <c r="C60">
-        <v>0.1633776265681031</v>
+        <v>0.1629713248151007</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>253.7664292207252</v>
+        <v>263.5687475839692</v>
       </c>
       <c r="B61">
-        <v>15.93004799806721</v>
+        <v>16.2348005095218</v>
       </c>
       <c r="C61">
-        <v>0.163107046160824</v>
+        <v>0.1694074350604394</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>280.5890708424502</v>
+        <v>252.8787435714369</v>
       </c>
       <c r="B62">
-        <v>16.75079314069785</v>
+        <v>15.90216160059496</v>
       </c>
       <c r="C62">
-        <v>0.1803471588841083</v>
+        <v>0.1625364908489208</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>256.4846513626869</v>
+        <v>267.0428803353928</v>
       </c>
       <c r="B63">
-        <v>16.01513819368059</v>
+        <v>16.34144670264517</v>
       </c>
       <c r="C63">
-        <v>0.1648541692367403</v>
+        <v>0.1716404157300872</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>262.5010601846754</v>
+        <v>261.8428009094972</v>
       </c>
       <c r="B64">
-        <v>16.20188446399601</v>
+        <v>16.18155743151744</v>
       </c>
       <c r="C64">
-        <v>0.1687211845644358</v>
+        <v>0.1682980918554716</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>254.3724273167591</v>
+        <v>286.5584295140848</v>
       </c>
       <c r="B65">
-        <v>15.94905725479594</v>
+        <v>16.92803678853767</v>
       </c>
       <c r="C65">
-        <v>0.1634965482700137</v>
+        <v>0.1841839329735483</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>265.8938386326158</v>
+        <v>267.1571951421738</v>
       </c>
       <c r="B66">
-        <v>16.30625151997281</v>
+        <v>16.34494402383115</v>
       </c>
       <c r="C66">
-        <v>0.1709018751806854</v>
+        <v>0.1717138909747206</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>291.2507437620358</v>
+        <v>241.8983969642922</v>
       </c>
       <c r="B67">
-        <v>17.06606995655519</v>
+        <v>15.55308319801229</v>
       </c>
       <c r="C67">
-        <v>0.1871998934336949</v>
+        <v>0.1554789304520905</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>282.6415875291828</v>
+        <v>272.2027353426801</v>
       </c>
       <c r="B68">
-        <v>16.81194776131495</v>
+        <v>16.49856767548868</v>
       </c>
       <c r="C68">
-        <v>0.1816664032577497</v>
+        <v>0.174956885569856</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>261.5941655383976</v>
+        <v>261.9527301165068</v>
       </c>
       <c r="B69">
-        <v>16.17387292946243</v>
+        <v>16.18495381879438</v>
       </c>
       <c r="C69">
-        <v>0.1681382827701073</v>
+        <v>0.1683687482787731</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>252.9267520554092</v>
+        <v>257.3321191767769</v>
       </c>
       <c r="B70">
-        <v>15.90367102449649</v>
+        <v>16.04157471000827</v>
       </c>
       <c r="C70">
-        <v>0.1625673480510964</v>
+        <v>0.1653988747452547</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>284.7062879297662</v>
+        <v>245.6986341826607</v>
       </c>
       <c r="B71">
-        <v>16.87324177298975</v>
+        <v>15.67477700583522</v>
       </c>
       <c r="C71">
-        <v>0.1829934786497944</v>
+        <v>0.1579215130635959</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>270.1010023326344</v>
+        <v>278.8697004975927</v>
       </c>
       <c r="B72">
-        <v>16.43474984089001</v>
+        <v>16.69939221940705</v>
       </c>
       <c r="C72">
-        <v>0.173606007661616</v>
+        <v>0.1792420425806331</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>271.0186611310127</v>
+        <v>257.7762095660431</v>
       </c>
       <c r="B73">
-        <v>16.46264441488708</v>
+        <v>16.05541060097944</v>
       </c>
       <c r="C73">
-        <v>0.1741958280584519</v>
+        <v>0.1656843115220742</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>256.5528564575608</v>
+        <v>253.4909556432133</v>
       </c>
       <c r="B74">
-        <v>16.01726744665147</v>
+        <v>15.92139929915751</v>
       </c>
       <c r="C74">
-        <v>0.1648980077050231</v>
+        <v>0.1629299869585437</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>258.6851790528062</v>
+        <v>258.0712834543037</v>
       </c>
       <c r="B75">
-        <v>16.08369295444321</v>
+        <v>16.06459720796957</v>
       </c>
       <c r="C75">
-        <v>0.1662685469092836</v>
+        <v>0.1658739687216528</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>282.0933403430933</v>
+        <v>274.6182979132189</v>
       </c>
       <c r="B76">
-        <v>16.79563456208468</v>
+        <v>16.57161120450329</v>
       </c>
       <c r="C76">
-        <v>0.1813140202441112</v>
+        <v>0.1765094757879873</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>256.4937646299638</v>
+        <v>296.3850160494154</v>
       </c>
       <c r="B77">
-        <v>16.01542271156037</v>
+        <v>17.21583619954068</v>
       </c>
       <c r="C77">
-        <v>0.1648600267416572</v>
+        <v>0.1904999201139465</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>304.2591249404514</v>
+        <v>286.7443440386357</v>
       </c>
       <c r="B78">
-        <v>17.44302510863444</v>
+        <v>16.93352721787861</v>
       </c>
       <c r="C78">
-        <v>0.1955609624524023</v>
+        <v>0.1843034285625891</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>297.8392938673074</v>
+        <v>304.1889535212652</v>
       </c>
       <c r="B79">
-        <v>17.25802114575444</v>
+        <v>17.44101354627263</v>
       </c>
       <c r="C79">
-        <v>0.1914346495811252</v>
+        <v>0.195515860139445</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>256.3175854342089</v>
+        <v>248.9708666353354</v>
       </c>
       <c r="B80">
-        <v>16.00992146870836</v>
+        <v>15.77881068507178</v>
       </c>
       <c r="C80">
-        <v>0.1647467884843234</v>
+        <v>0.1600247233713862</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>268.5867808423248</v>
+        <v>281.0883643478567</v>
       </c>
       <c r="B81">
-        <v>16.38861741704665</v>
+        <v>16.7656900945907</v>
       </c>
       <c r="C81">
-        <v>0.1726327497122634</v>
+        <v>0.1806680771753247</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>249.2355399043285</v>
+        <v>260.6464678947455</v>
       </c>
       <c r="B82">
-        <v>15.78719544137997</v>
+        <v>16.14454916975836</v>
       </c>
       <c r="C82">
-        <v>0.1601948407318061</v>
+        <v>0.1675291550624577</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>291.1331215809383</v>
+        <v>299.3349750637082</v>
       </c>
       <c r="B83">
-        <v>17.0626235257342</v>
+        <v>17.30129980850306</v>
       </c>
       <c r="C83">
-        <v>0.1871242923915087</v>
+        <v>0.1923959908534586</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>264.6690645628642</v>
+        <v>274.1549480094779</v>
       </c>
       <c r="B84">
-        <v>16.26865281954422</v>
+        <v>16.5576250715336</v>
       </c>
       <c r="C84">
-        <v>0.1701146580482066</v>
+        <v>0.1762116600588896</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>279.447943376558</v>
+        <v>276.4498538851875</v>
       </c>
       <c r="B85">
-        <v>16.71669654496839</v>
+        <v>16.62678122443389</v>
       </c>
       <c r="C85">
-        <v>0.1796137051691069</v>
+        <v>0.1776866988169861</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>256.7721991862699</v>
+        <v>255.7212053384206</v>
       </c>
       <c r="B86">
-        <v>16.02411305458963</v>
+        <v>15.99128529350973</v>
       </c>
       <c r="C86">
-        <v>0.1650389890975832</v>
+        <v>0.1643634682945236</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>243.8186924626734</v>
+        <v>284.5114606963366</v>
       </c>
       <c r="B87">
-        <v>15.61469476047077</v>
+        <v>16.86746752468599</v>
       </c>
       <c r="C87">
-        <v>0.1567131903479262</v>
+        <v>0.1828682544637053</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>259.6206847370572</v>
+        <v>252.1551638788445</v>
       </c>
       <c r="B88">
-        <v>16.11274913653959</v>
+        <v>15.87939431712824</v>
       </c>
       <c r="C88">
-        <v>0.1668698382987468</v>
+        <v>0.1620714137830396</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>269.3397987664736</v>
+        <v>260.8598617949388</v>
       </c>
       <c r="B89">
-        <v>16.41157514580711</v>
+        <v>16.15115667049697</v>
       </c>
       <c r="C89">
-        <v>0.1731167480476264</v>
+        <v>0.1676663128765776</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>246.0687562801455</v>
+        <v>265.3998260806887</v>
       </c>
       <c r="B90">
-        <v>15.68657885837908</v>
+        <v>16.29109652787954</v>
       </c>
       <c r="C90">
-        <v>0.1581594071074419</v>
+        <v>0.1705843511947183</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>269.5276901471453</v>
+        <v>251.0820768478729</v>
       </c>
       <c r="B91">
-        <v>16.41729850332098</v>
+        <v>15.84556962838108</v>
       </c>
       <c r="C91">
-        <v>0.1732375142506067</v>
+        <v>0.161381692701996</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>258.9906240079315</v>
+        <v>268.4074353194355</v>
       </c>
       <c r="B92">
-        <v>16.09318563889485</v>
+        <v>16.38314485437505</v>
       </c>
       <c r="C92">
-        <v>0.1664648700578916</v>
+        <v>0.1725174763147154</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>255.4340087170559</v>
+        <v>279.0018315378398</v>
       </c>
       <c r="B93">
-        <v>15.98230298539781</v>
+        <v>16.70334791405124</v>
       </c>
       <c r="C93">
-        <v>0.1641788741670758</v>
+        <v>0.1793269691162177</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>283.6732096070486</v>
+        <v>314.0744999665247</v>
       </c>
       <c r="B94">
-        <v>16.84260103449134</v>
+        <v>17.72214716016445</v>
       </c>
       <c r="C94">
-        <v>0.1823294729568854</v>
+        <v>0.201869743453811</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>276.9684567903806</v>
+        <v>293.8392839176836</v>
       </c>
       <c r="B95">
-        <v>16.64236932622217</v>
+        <v>17.14174098269145</v>
       </c>
       <c r="C95">
-        <v>0.1780200281239992</v>
+        <v>0.1888636640906455</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>259.193511542325</v>
+        <v>251.9728502826638</v>
       </c>
       <c r="B96">
-        <v>16.09948792795364</v>
+        <v>15.87365270763676</v>
       </c>
       <c r="C96">
-        <v>0.1665952749603</v>
+        <v>0.1619542326718936</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>264.3064027291618</v>
+        <v>263.5952788065447</v>
       </c>
       <c r="B97">
-        <v>16.25750296721984</v>
+        <v>16.2356175985561</v>
       </c>
       <c r="C97">
-        <v>0.1698815590499156</v>
+        <v>0.1694244878650918</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>263.0950969688644</v>
+        <v>279.5159366705859</v>
       </c>
       <c r="B98">
-        <v>16.22020644038985</v>
+        <v>16.71873011537019</v>
       </c>
       <c r="C98">
-        <v>0.1691029986029478</v>
+        <v>0.1796574075034987</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>248.9632732956019</v>
+        <v>298.1244504420759</v>
       </c>
       <c r="B99">
-        <v>15.77857006498377</v>
+        <v>17.26628073564414</v>
       </c>
       <c r="C99">
-        <v>0.1600198427919535</v>
+        <v>0.19161793247929</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>258.8180864966283</v>
+        <v>261.5041810949633</v>
       </c>
       <c r="B100">
-        <v>16.08782416912332</v>
+        <v>16.17109090614988</v>
       </c>
       <c r="C100">
-        <v>0.1663539724742062</v>
+        <v>0.1680804457393588</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>252.4136890498182</v>
+        <v>249.6025231559223</v>
       </c>
       <c r="B101">
-        <v>15.88753250350155</v>
+        <v>15.79881397940751</v>
       </c>
       <c r="C101">
-        <v>0.1622375794855944</v>
+        <v>0.1604307172988581</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>260.3634933246308</v>
+      </c>
+      <c r="B102">
+        <v>16.13578300934389</v>
+      </c>
+      <c r="C102">
+        <v>0.1673472746363823</v>
       </c>
     </row>
   </sheetData>
